--- a/tag_builder/Output/SCADA_Tags_Sterilizer.xlsx
+++ b/tag_builder/Output/SCADA_Tags_Sterilizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgesgregoire/Documents/Code/Omron-AB-Converter/tag_builder/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D41915CB-4B88-C449-B213-44F8D7A062BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698C8B8-6B8F-8048-9F54-5E53DD001582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{AD04B0BD-9A04-2840-9459-8E358371B5FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32300" windowHeight="17440" xr2:uid="{AD04B0BD-9A04-2840-9459-8E358371B5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="SCADA_Tags_Sterilizer" sheetId="1" r:id="rId1"/>
@@ -3250,9 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F096DA-F461-C747-870A-74A4408AD11F}">
   <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
